--- a/catalog.xlsx
+++ b/catalog.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
@@ -533,7 +533,7 @@
         <v>443</v>
       </c>
       <c r="E6" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7">
@@ -596,7 +596,7 @@
         <v>1234</v>
       </c>
       <c r="E9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -660,27 +660,6 @@
       </c>
       <c r="E15" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>PUFF</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>cola 1200</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>1200</v>
-      </c>
-      <c r="D16" t="n">
-        <v>320</v>
-      </c>
-      <c r="E16" t="n">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
